--- a/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A02-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>88237</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>72109</v>
+        <v>74091</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105671</v>
+        <v>109846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1273267767687931</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1040536094300703</v>
+        <v>0.1069139218999848</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1524842056427086</v>
+        <v>0.1585092061346854</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>142</v>
@@ -765,19 +765,19 @@
         <v>138631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>119286</v>
+        <v>119274</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>159796</v>
+        <v>158377</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2013957822374248</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1732930890685934</v>
+        <v>0.1732748999699052</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2321430710528248</v>
+        <v>0.2300818695596359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>229</v>
@@ -786,19 +786,19 @@
         <v>226868</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>201384</v>
+        <v>202485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>254423</v>
+        <v>254157</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1642368004565709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1457886537016352</v>
+        <v>0.1465855817967685</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1841852521910372</v>
+        <v>0.1839925058840474</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>604757</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>587323</v>
+        <v>583148</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>620885</v>
+        <v>618903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8726732232312069</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8475157943572912</v>
+        <v>0.8414907938653147</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8959463905699296</v>
+        <v>0.8930860781000151</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>554</v>
@@ -836,19 +836,19 @@
         <v>549720</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>528555</v>
+        <v>529974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>569065</v>
+        <v>569077</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7986042177625752</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7678569289471752</v>
+        <v>0.7699181304403641</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8267069109314066</v>
+        <v>0.8267251000300948</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1149</v>
@@ -857,19 +857,19 @@
         <v>1154477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1126922</v>
+        <v>1127188</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1179961</v>
+        <v>1178860</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.835763199543429</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8158147478089627</v>
+        <v>0.8160074941159529</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8542113462983645</v>
+        <v>0.8534144182032315</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>128164</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>109190</v>
+        <v>107261</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>147933</v>
+        <v>149055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1332540456041218</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1135269045817023</v>
+        <v>0.1115207979554931</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1538083879144818</v>
+        <v>0.154974604721603</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>199</v>
@@ -982,19 +982,19 @@
         <v>212733</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187096</v>
+        <v>189048</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>241369</v>
+        <v>240524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2196760493856155</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1932024725026321</v>
+        <v>0.1952183501754758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2492470760866083</v>
+        <v>0.2483741089456743</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>324</v>
@@ -1003,19 +1003,19 @@
         <v>340896</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>305780</v>
+        <v>308126</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>373309</v>
+        <v>378668</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1766126453832032</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1584192352224341</v>
+        <v>0.1596348308684717</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1934048439826845</v>
+        <v>0.1961816705170647</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>833636</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>813867</v>
+        <v>812745</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>852610</v>
+        <v>854539</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8667459543958782</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8461916120855182</v>
+        <v>0.8450253952783969</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8864730954182978</v>
+        <v>0.8884792020445069</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>709</v>
@@ -1053,19 +1053,19 @@
         <v>755660</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>727024</v>
+        <v>727869</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>781297</v>
+        <v>779345</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7803239506143844</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7507529239133918</v>
+        <v>0.7516258910543256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8067975274973679</v>
+        <v>0.8047816498245242</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1480</v>
@@ -1074,19 +1074,19 @@
         <v>1589297</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1556884</v>
+        <v>1551525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1624413</v>
+        <v>1622067</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8233873546167968</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8065951560173154</v>
+        <v>0.8038183294829352</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8415807647775658</v>
+        <v>0.8403651691315281</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>83274</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>67081</v>
+        <v>65808</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>100979</v>
+        <v>101563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1227303700557964</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09886464987475138</v>
+        <v>0.09698977911583394</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1488254521273736</v>
+        <v>0.1496852259751088</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>178</v>
@@ -1199,19 +1199,19 @@
         <v>177351</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154276</v>
+        <v>156051</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>199573</v>
+        <v>202884</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2593458751246128</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.225602672104592</v>
+        <v>0.228197054644432</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2918418998007281</v>
+        <v>0.2966824505709034</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>260</v>
@@ -1220,19 +1220,19 @@
         <v>260625</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>229888</v>
+        <v>233465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>289063</v>
+        <v>288404</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1913054732913342</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1687433517679758</v>
+        <v>0.1713691942073865</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2121795005075946</v>
+        <v>0.2116961078105125</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>595235</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>577530</v>
+        <v>576946</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>611428</v>
+        <v>612701</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8772696299442037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8511745478726265</v>
+        <v>0.8503147740248913</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9011353501252487</v>
+        <v>0.9030102208841662</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>518</v>
@@ -1270,19 +1270,19 @@
         <v>506490</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>484268</v>
+        <v>480957</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>529565</v>
+        <v>527790</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7406541248753872</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7081581001992721</v>
+        <v>0.7033175494290966</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7743973278954079</v>
+        <v>0.771802945355568</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1077</v>
@@ -1291,19 +1291,19 @@
         <v>1101725</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1073287</v>
+        <v>1073946</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1132462</v>
+        <v>1128885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8086945267086658</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7878204994924054</v>
+        <v>0.7883038921894875</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8312566482320242</v>
+        <v>0.8286308057926135</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>156120</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>135632</v>
+        <v>134635</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178264</v>
+        <v>179759</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1656932077829992</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1439486713105553</v>
+        <v>0.1428911018262736</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1891958373722309</v>
+        <v>0.1907820782858151</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>264</v>
@@ -1416,19 +1416,19 @@
         <v>277902</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>249879</v>
+        <v>247826</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307621</v>
+        <v>305904</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2675702639522853</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2405897840946936</v>
+        <v>0.2386125179771078</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2961843448258508</v>
+        <v>0.2945316952459031</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>434</v>
@@ -1437,19 +1437,19 @@
         <v>434021</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>399428</v>
+        <v>396513</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>470762</v>
+        <v>471333</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.219110469428721</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2016463042612321</v>
+        <v>0.2001749525941031</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.237658656642264</v>
+        <v>0.2379465237566783</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>786102</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>763958</v>
+        <v>762463</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>806590</v>
+        <v>807587</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8343067922170009</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8108041626277691</v>
+        <v>0.8092179217141848</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8560513286894446</v>
+        <v>0.8571088981737265</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>733</v>
@@ -1487,19 +1487,19 @@
         <v>760710</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>730991</v>
+        <v>732708</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>788733</v>
+        <v>790786</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7324297360477147</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7038156551741493</v>
+        <v>0.7054683047540969</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7594102159053064</v>
+        <v>0.7613874820228924</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1557</v>
@@ -1508,19 +1508,19 @@
         <v>1546813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1510072</v>
+        <v>1509501</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1581406</v>
+        <v>1584321</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.780889530571279</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7623413433577361</v>
+        <v>0.7620534762433218</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.798353695738768</v>
+        <v>0.7998250474058969</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>455794</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>418733</v>
+        <v>421899</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>497494</v>
+        <v>499310</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1391513980117829</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1278369250593171</v>
+        <v>0.1288035802922524</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1518821427036345</v>
+        <v>0.1524366845382654</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>783</v>
@@ -1633,19 +1633,19 @@
         <v>806617</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>753617</v>
+        <v>760716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>858102</v>
+        <v>856769</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2387007226089774</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2230165773152083</v>
+        <v>0.2251172689902149</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2539365865744282</v>
+        <v>0.2535422224601881</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1247</v>
@@ -1654,19 +1654,19 @@
         <v>1262411</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1199500</v>
+        <v>1204242</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1326754</v>
+        <v>1335304</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1897014865769265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1802478810361731</v>
+        <v>0.1809605769659962</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1993702765569464</v>
+        <v>0.2006551738634096</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2819731</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2778031</v>
+        <v>2776215</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2856792</v>
+        <v>2853626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8608486019882171</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8481178572963655</v>
+        <v>0.8475633154617346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8721630749406829</v>
+        <v>0.8711964197077475</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2514</v>
@@ -1704,19 +1704,19 @@
         <v>2572580</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2521095</v>
+        <v>2522428</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2625580</v>
+        <v>2618481</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7612992773910227</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7460634134255718</v>
+        <v>0.746457777539812</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7769834226847919</v>
+        <v>0.7748827310097853</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5263</v>
@@ -1725,19 +1725,19 @@
         <v>5392311</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5327968</v>
+        <v>5319418</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5455222</v>
+        <v>5450480</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8102985134230735</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8006297234430536</v>
+        <v>0.7993448261365904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8197521189638269</v>
+        <v>0.8190394230340039</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>121145</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>100332</v>
+        <v>101809</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>142902</v>
+        <v>142469</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1728757278615731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1431752007495683</v>
+        <v>0.1452825429048301</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2039229095997785</v>
+        <v>0.2033056618869817</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>214</v>
@@ -2090,19 +2090,19 @@
         <v>231690</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>204345</v>
+        <v>204934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>256358</v>
+        <v>255378</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3328850377071279</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2935968128519643</v>
+        <v>0.2944424155050499</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3683269376535105</v>
+        <v>0.3669193856406048</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>330</v>
@@ -2111,19 +2111,19 @@
         <v>352835</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>320129</v>
+        <v>319982</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>382928</v>
+        <v>384786</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2526079147707644</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2291922850068207</v>
+        <v>0.2290870518057004</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2741521530865014</v>
+        <v>0.2754829822378018</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>579619</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>557862</v>
+        <v>558295</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>600432</v>
+        <v>598955</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8271242721384269</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7960770904002215</v>
+        <v>0.7966943381130179</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8568247992504318</v>
+        <v>0.8547174570951698</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>435</v>
@@ -2161,19 +2161,19 @@
         <v>464317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439649</v>
+        <v>440629</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>491662</v>
+        <v>491073</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6671149622928721</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6316730623464897</v>
+        <v>0.6330806143593952</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7064031871480357</v>
+        <v>0.7055575844949509</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>990</v>
@@ -2182,19 +2182,19 @@
         <v>1043935</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1013842</v>
+        <v>1011984</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1076641</v>
+        <v>1076788</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7473920852292356</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7258478469134986</v>
+        <v>0.7245170177621983</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7708077149931793</v>
+        <v>0.7709129481942997</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>193995</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>170877</v>
+        <v>171986</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224136</v>
+        <v>223670</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1905749380776909</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1678646238091606</v>
+        <v>0.1689534536819532</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2201847114489613</v>
+        <v>0.2197269092645612</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>294</v>
@@ -2307,19 +2307,19 @@
         <v>325047</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>293417</v>
+        <v>293110</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>357105</v>
+        <v>356410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3158991467214641</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2851589119013493</v>
+        <v>0.2848606283356007</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3470545814854166</v>
+        <v>0.3463798899215958</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>471</v>
@@ -2328,19 +2328,19 @@
         <v>519042</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>477574</v>
+        <v>483069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>561812</v>
+        <v>561865</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2535741245105222</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2333153193541855</v>
+        <v>0.235999487983638</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2744688037302536</v>
+        <v>0.2744948508176809</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>823952</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>793811</v>
+        <v>794277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>847070</v>
+        <v>845961</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8094250619223091</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7798152885510387</v>
+        <v>0.7802730907354386</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8321353761908391</v>
+        <v>0.8310465463180468</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>643</v>
@@ -2378,19 +2378,19 @@
         <v>703911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>671853</v>
+        <v>672548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>735541</v>
+        <v>735848</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6841008532785359</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6529454185145833</v>
+        <v>0.6536201100784046</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7148410880986507</v>
+        <v>0.7151393716643999</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1402</v>
@@ -2399,19 +2399,19 @@
         <v>1527863</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1485093</v>
+        <v>1485040</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1569331</v>
+        <v>1563836</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7464258754894778</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7255311962697464</v>
+        <v>0.7255051491823186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7666846806458145</v>
+        <v>0.7640005120163614</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>124417</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>102371</v>
+        <v>104477</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>145426</v>
+        <v>146663</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1644560871009565</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1353153607010599</v>
+        <v>0.1380987021442485</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1922251148160622</v>
+        <v>0.1938604942680925</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>223</v>
@@ -2524,19 +2524,19 @@
         <v>246627</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>217928</v>
+        <v>219658</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>274542</v>
+        <v>272788</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3177022398255431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2807324831601296</v>
+        <v>0.28296186172431</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3536620821973328</v>
+        <v>0.351403302566646</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>335</v>
@@ -2545,19 +2545,19 @@
         <v>371044</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336198</v>
+        <v>338059</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>407323</v>
+        <v>406139</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2420662105300678</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2193328340425608</v>
+        <v>0.2205469768127302</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2657343632590909</v>
+        <v>0.2649616475765401</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>632121</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>611112</v>
+        <v>609875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>654167</v>
+        <v>652061</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8355439128990435</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8077748851839379</v>
+        <v>0.8061395057319074</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8646846392989403</v>
+        <v>0.8619012978557514</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>481</v>
@@ -2595,19 +2595,19 @@
         <v>529656</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>501741</v>
+        <v>503495</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>558355</v>
+        <v>556625</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6822977601744569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6463379178026674</v>
+        <v>0.6485966974333541</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.719267516839872</v>
+        <v>0.7170381382756903</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1057</v>
@@ -2616,19 +2616,19 @@
         <v>1161777</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1125498</v>
+        <v>1126682</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1196623</v>
+        <v>1194762</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7579337894699322</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7342656367409091</v>
+        <v>0.7350383524234604</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7806671659574393</v>
+        <v>0.7794530231872698</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>171825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>149796</v>
+        <v>149636</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>196190</v>
+        <v>198707</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1816465971200105</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1583582029913813</v>
+        <v>0.158188807331761</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2074046103909727</v>
+        <v>0.2100653236413696</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>368</v>
@@ -2741,19 +2741,19 @@
         <v>385607</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355776</v>
+        <v>355280</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>419446</v>
+        <v>418853</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3673332800218395</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3389158078844626</v>
+        <v>0.3384439637514651</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3995686157466922</v>
+        <v>0.3990044967572867</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>531</v>
@@ -2762,19 +2762,19 @@
         <v>557432</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>517901</v>
+        <v>516261</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>600863</v>
+        <v>598557</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2793196811255133</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2595116012648855</v>
+        <v>0.2586896291569981</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3010825340645055</v>
+        <v>0.2999265452422928</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>774105</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>749740</v>
+        <v>747223</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>796134</v>
+        <v>796294</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8183534028799895</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7925953896090274</v>
+        <v>0.7899346763586306</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8416417970086187</v>
+        <v>0.841811192668239</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>633</v>
@@ -2812,19 +2812,19 @@
         <v>664139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>630300</v>
+        <v>630893</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>693970</v>
+        <v>694466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6326667199781605</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6004313842533078</v>
+        <v>0.6009955032427133</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6610841921155373</v>
+        <v>0.661556036248535</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1378</v>
@@ -2833,19 +2833,19 @@
         <v>1438245</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1394814</v>
+        <v>1397120</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1477776</v>
+        <v>1479416</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7206803188744867</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6989174659354948</v>
+        <v>0.7000734547577073</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.740488398735115</v>
+        <v>0.7413103708430021</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>611383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>563982</v>
+        <v>564034</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>658393</v>
+        <v>657111</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1787052141991832</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1648501457766606</v>
+        <v>0.1648653392454351</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1924461625630186</v>
+        <v>0.1920714338510955</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1099</v>
@@ -2958,19 +2958,19 @@
         <v>1188971</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1128510</v>
+        <v>1135421</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1242133</v>
+        <v>1253783</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3348275888393799</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3178010260793847</v>
+        <v>0.319747394178202</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3497987006425895</v>
+        <v>0.3530793757372668</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1667</v>
@@ -2979,19 +2979,19 @@
         <v>1800354</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1728664</v>
+        <v>1726844</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1880553</v>
+        <v>1873957</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2582198294252957</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.24793757151704</v>
+        <v>0.2476765727189154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2697226592244747</v>
+        <v>0.2687765903775313</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2809796</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2762786</v>
+        <v>2764068</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2857197</v>
+        <v>2857145</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8212947858008168</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8075538374369812</v>
+        <v>0.8079285661489044</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8351498542233392</v>
+        <v>0.8351346607545649</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2192</v>
@@ -3029,19 +3029,19 @@
         <v>2362024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2308862</v>
+        <v>2297212</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2422485</v>
+        <v>2415574</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6651724111606201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6502012993574106</v>
+        <v>0.6469206242627329</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6821989739206152</v>
+        <v>0.680252605821798</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4827</v>
@@ -3050,19 +3050,19 @@
         <v>5171820</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5091621</v>
+        <v>5098217</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5243510</v>
+        <v>5245330</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7417801705747044</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7302773407755255</v>
+        <v>0.7312234096224688</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7520624284829599</v>
+        <v>0.7523234272810848</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>128241</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>108770</v>
+        <v>108062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>149330</v>
+        <v>148499</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1900433319642479</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.161189013426227</v>
+        <v>0.1601398500846147</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2212957281885432</v>
+        <v>0.2200633224833397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>213</v>
@@ -3415,19 +3415,19 @@
         <v>220153</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>195048</v>
+        <v>199839</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>244554</v>
+        <v>248622</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3271996675599033</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2898879906902363</v>
+        <v>0.2970082309641249</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3634652829965714</v>
+        <v>0.3695118819952139</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>337</v>
@@ -3436,19 +3436,19 @@
         <v>348394</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>319253</v>
+        <v>314629</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>382541</v>
+        <v>379632</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2585217090014496</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2368978935974179</v>
+        <v>0.2334670208534858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2838600141596634</v>
+        <v>0.2817016586765166</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>546559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>525470</v>
+        <v>526301</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>566030</v>
+        <v>566738</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8099566680357521</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7787042718114565</v>
+        <v>0.7799366775166601</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8388109865737728</v>
+        <v>0.8398601499153852</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>453</v>
@@ -3486,19 +3486,19 @@
         <v>452686</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>428285</v>
+        <v>424217</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>477791</v>
+        <v>473000</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6728003324400966</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6365347170034286</v>
+        <v>0.6304881180047862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7101120093097637</v>
+        <v>0.7029917690358751</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>981</v>
@@ -3507,19 +3507,19 @@
         <v>999245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>965098</v>
+        <v>968007</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1028386</v>
+        <v>1033010</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7414782909985504</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7161399858403363</v>
+        <v>0.7182983413234834</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7631021064025821</v>
+        <v>0.7665329791465143</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>201957</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>176573</v>
+        <v>179069</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>230837</v>
+        <v>231304</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1975262591369324</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1726993199856091</v>
+        <v>0.1751399716965812</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2257728610119581</v>
+        <v>0.2262296036288994</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>271</v>
@@ -3632,19 +3632,19 @@
         <v>297842</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>269813</v>
+        <v>268432</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>327948</v>
+        <v>328385</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2855868219728201</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2587105503109599</v>
+        <v>0.2573864226455758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3144541955016354</v>
+        <v>0.314872761066154</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>458</v>
@@ -3653,19 +3653,19 @@
         <v>499799</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>461972</v>
+        <v>460714</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>542124</v>
+        <v>540377</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2419931887233388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2236778095767319</v>
+        <v>0.2230687906486069</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2624859746063591</v>
+        <v>0.261640069568508</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>820474</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>791594</v>
+        <v>791127</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>845858</v>
+        <v>843362</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8024737408630676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.774227138988042</v>
+        <v>0.7737703963711006</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8273006800143908</v>
+        <v>0.8248600283034189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>706</v>
@@ -3703,19 +3703,19 @@
         <v>745071</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>714965</v>
+        <v>714528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>773100</v>
+        <v>774481</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.71441317802718</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6855458044983647</v>
+        <v>0.685127238933846</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7412894496890403</v>
+        <v>0.7426135773544241</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1470</v>
@@ -3724,19 +3724,19 @@
         <v>1565545</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1523220</v>
+        <v>1524967</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1603372</v>
+        <v>1604630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7580068112766613</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7375140253936405</v>
+        <v>0.738359930431492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.776322190423268</v>
+        <v>0.7769312093513931</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>112890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>93348</v>
+        <v>94108</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>133697</v>
+        <v>134319</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1486275076151367</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1228988079251575</v>
+        <v>0.1238990083697829</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1760211729873732</v>
+        <v>0.1768396156012765</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>204</v>
@@ -3849,19 +3849,19 @@
         <v>222612</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>196775</v>
+        <v>199756</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>249405</v>
+        <v>250150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2835781731101598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2506648402625923</v>
+        <v>0.254462131829864</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3177083124160845</v>
+        <v>0.3186573798738015</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>312</v>
@@ -3870,19 +3870,19 @@
         <v>335502</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>302594</v>
+        <v>301105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>368806</v>
+        <v>367343</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.217215018689461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1959089638888538</v>
+        <v>0.1949447934683896</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2387768954331193</v>
+        <v>0.2378295906578037</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>646662</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>625855</v>
+        <v>625233</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666204</v>
+        <v>665444</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8513724923848632</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8239788270126269</v>
+        <v>0.8231603843987236</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8771011920748425</v>
+        <v>0.876100991630217</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>532</v>
@@ -3920,19 +3920,19 @@
         <v>562399</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>535606</v>
+        <v>534861</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>588236</v>
+        <v>585255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7164218268898401</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6822916875839152</v>
+        <v>0.6813426201261985</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7493351597374076</v>
+        <v>0.7455378681701359</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1120</v>
@@ -3941,19 +3941,19 @@
         <v>1209061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1175757</v>
+        <v>1177220</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1241969</v>
+        <v>1243458</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.782784981310539</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7612231045668809</v>
+        <v>0.7621704093421962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8040910361111464</v>
+        <v>0.8050552065316102</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>197357</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>173270</v>
+        <v>173617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>223083</v>
+        <v>223442</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2104989588558745</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1848079462210683</v>
+        <v>0.185178163444995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2379381296743859</v>
+        <v>0.2383213949657283</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>325</v>
@@ -4066,19 +4066,19 @@
         <v>361749</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>326546</v>
+        <v>330886</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>392436</v>
+        <v>392748</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3465766281280296</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3128501939797977</v>
+        <v>0.3170075880364873</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3759764655490624</v>
+        <v>0.376274671476504</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>518</v>
@@ -4087,19 +4087,19 @@
         <v>559106</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>518888</v>
+        <v>519029</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>602070</v>
+        <v>601379</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.282185082548476</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2618867423531108</v>
+        <v>0.2619579825162318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3038689433242505</v>
+        <v>0.3035204378277569</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>740210</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>714484</v>
+        <v>714125</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>764297</v>
+        <v>763950</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7895010411441256</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7620618703256141</v>
+        <v>0.7616786050342718</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8151920537789316</v>
+        <v>0.814821836555005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>634</v>
@@ -4137,19 +4137,19 @@
         <v>682030</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>651343</v>
+        <v>651031</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>717233</v>
+        <v>712893</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6534233718719703</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6240235344509377</v>
+        <v>0.623725328523496</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6871498060202024</v>
+        <v>0.6829924119635128</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1373</v>
@@ -4158,19 +4158,19 @@
         <v>1422240</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1379276</v>
+        <v>1379967</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1462458</v>
+        <v>1462317</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7178149174515239</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6961310566757496</v>
+        <v>0.6964795621722432</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7381132576468893</v>
+        <v>0.7380420174837684</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>640445</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>594649</v>
+        <v>593917</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>687321</v>
+        <v>689624</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1886798338426785</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1751879008859406</v>
+        <v>0.1749721125682354</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.20248983404212</v>
+        <v>0.2031682535939748</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1013</v>
@@ -4283,19 +4283,19 @@
         <v>1102356</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1042295</v>
+        <v>1049412</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1156622</v>
+        <v>1162413</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3110010539459085</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2940562672165521</v>
+        <v>0.2960643062535912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3263107521241219</v>
+        <v>0.3279445828192219</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1625</v>
@@ -4304,19 +4304,19 @@
         <v>1742802</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1669429</v>
+        <v>1671864</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1814773</v>
+        <v>1814049</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2511642594031444</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.240590137689512</v>
+        <v>0.240941095783637</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2615364876246478</v>
+        <v>0.2614320272823652</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2753905</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2707029</v>
+        <v>2704726</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2799701</v>
+        <v>2800433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8113201661573215</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7975101659578799</v>
+        <v>0.7968317464060253</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8248120991140595</v>
+        <v>0.8250278874317646</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2325</v>
@@ -4354,19 +4354,19 @@
         <v>2442186</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2387920</v>
+        <v>2382129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2502247</v>
+        <v>2495130</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6889989460540914</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6736892478758777</v>
+        <v>0.6720554171807781</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7059437327834478</v>
+        <v>0.7039356937464087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4944</v>
@@ -4375,19 +4375,19 @@
         <v>5196090</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5124119</v>
+        <v>5124843</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5269463</v>
+        <v>5267028</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7488357405968556</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7384635123753522</v>
+        <v>0.7385679727176347</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7594098623104881</v>
+        <v>0.7590589042163632</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>190046</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>168246</v>
+        <v>165496</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>217170</v>
+        <v>215181</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2751462792038037</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2435842644604189</v>
+        <v>0.2396027663417771</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3144159045240966</v>
+        <v>0.3115353949005825</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>560</v>
@@ -4740,19 +4740,19 @@
         <v>290148</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269402</v>
+        <v>269790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>313486</v>
+        <v>313258</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3957750810007339</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.367476661820734</v>
+        <v>0.3680057570469868</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4276087504435686</v>
+        <v>0.4272977074120299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>778</v>
@@ -4761,19 +4761,19 @@
         <v>480194</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>446975</v>
+        <v>446723</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>512871</v>
+        <v>513408</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3372569353007174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.313926172946042</v>
+        <v>0.3137486818297175</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.360207264850407</v>
+        <v>0.3605842504762641</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>500664</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>473540</v>
+        <v>475529</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>522464</v>
+        <v>525214</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7248537207961963</v>
+        <v>0.7248537207961964</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6855840954759036</v>
+        <v>0.6884646050994174</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7564157355395811</v>
+        <v>0.7603972336582229</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>679</v>
@@ -4811,19 +4811,19 @@
         <v>442965</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>419627</v>
+        <v>419855</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>463711</v>
+        <v>463323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.604224918999266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5723912495564313</v>
+        <v>0.5727022925879702</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.632523338179266</v>
+        <v>0.6319942429530131</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1191</v>
@@ -4832,19 +4832,19 @@
         <v>943629</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>910952</v>
+        <v>910415</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>976848</v>
+        <v>977100</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.6627430646992828</v>
+        <v>0.6627430646992827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.639792735149593</v>
+        <v>0.639415749523736</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6860738270539579</v>
+        <v>0.6862513181702826</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>224970</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>198509</v>
+        <v>198904</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253833</v>
+        <v>254512</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.214478769380572</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1892509258349282</v>
+        <v>0.1896280939340449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2419951941807968</v>
+        <v>0.2426424260413123</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>652</v>
@@ -4957,19 +4957,19 @@
         <v>417875</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>390008</v>
+        <v>391008</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>444401</v>
+        <v>447395</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3902318173861569</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.364208318206682</v>
+        <v>0.3651424831566496</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4150028406381867</v>
+        <v>0.4177993363124905</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>883</v>
@@ -4978,19 +4978,19 @@
         <v>642845</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>601823</v>
+        <v>602592</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>685488</v>
+        <v>681249</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3032640452361182</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2839116590808671</v>
+        <v>0.2842743393628364</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3233807892242275</v>
+        <v>0.321380878740786</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>823947</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>795084</v>
+        <v>794405</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>850408</v>
+        <v>850013</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.785521230619428</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7580048058192029</v>
+        <v>0.7573575739586877</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8107490741650717</v>
+        <v>0.8103719060659549</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>864</v>
@@ -5028,19 +5028,19 @@
         <v>652963</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>626437</v>
+        <v>623443</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>680830</v>
+        <v>679830</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6097681826138431</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5849971593618132</v>
+        <v>0.5822006636875096</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6357916817933179</v>
+        <v>0.6348575168433503</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1597</v>
@@ -5049,19 +5049,19 @@
         <v>1476910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1434267</v>
+        <v>1438506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1517932</v>
+        <v>1517163</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6967359547638818</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6766192107757724</v>
+        <v>0.6786191212592139</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7160883409191329</v>
+        <v>0.7157256606371635</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>180676</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>157000</v>
+        <v>157592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>208851</v>
+        <v>209623</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.224981377224547</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.195498982673238</v>
+        <v>0.1962359557576617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2600647030101902</v>
+        <v>0.2610257119993472</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>419</v>
@@ -5174,19 +5174,19 @@
         <v>297675</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>273644</v>
+        <v>272214</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>321130</v>
+        <v>321705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3664783879176006</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.33689313585367</v>
+        <v>0.3351316223930301</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3953542657384238</v>
+        <v>0.3960619509065011</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>587</v>
@@ -5195,19 +5195,19 @@
         <v>478352</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>440499</v>
+        <v>443432</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>514532</v>
+        <v>513762</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.2961321987092566</v>
+        <v>0.2961321987092565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2726989710947821</v>
+        <v>0.2745143564124101</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3185302887406613</v>
+        <v>0.3180532885246221</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>622397</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>594222</v>
+        <v>593450</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>646073</v>
+        <v>645481</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.775018622775453</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.73993529698981</v>
+        <v>0.7389742880006528</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.804501017326762</v>
+        <v>0.8037640442423383</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>628</v>
@@ -5245,19 +5245,19 @@
         <v>514584</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>491129</v>
+        <v>490554</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>538615</v>
+        <v>540045</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6335216120823993</v>
+        <v>0.6335216120823994</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6046457342615762</v>
+        <v>0.6039380490934985</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6631068641463302</v>
+        <v>0.6648683776069697</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1136</v>
@@ -5266,19 +5266,19 @@
         <v>1136980</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1100800</v>
+        <v>1101570</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1174833</v>
+        <v>1171900</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7038678012907436</v>
+        <v>0.7038678012907433</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6814697112593391</v>
+        <v>0.6819467114753779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.727301028905218</v>
+        <v>0.7254856435875902</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>243634</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>215692</v>
+        <v>217235</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>272148</v>
+        <v>276028</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.246079707804392</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2178573996828363</v>
+        <v>0.2194156918442575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2748797582565225</v>
+        <v>0.2787984478618014</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>681</v>
@@ -5391,19 +5391,19 @@
         <v>448810</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>421539</v>
+        <v>421004</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>476821</v>
+        <v>480435</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4017884046524013</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3773742692567501</v>
+        <v>0.3768952090011599</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4268649919333987</v>
+        <v>0.4300996631155236</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>948</v>
@@ -5412,19 +5412,19 @@
         <v>692444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>654616</v>
+        <v>651019</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>736219</v>
+        <v>731889</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3286253758992962</v>
+        <v>0.3286253758992963</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3106725061711604</v>
+        <v>0.3089656759537778</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3494004648871055</v>
+        <v>0.3473454238046847</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>746428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>717914</v>
+        <v>714034</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>774370</v>
+        <v>772827</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.753920292195608</v>
+        <v>0.7539202921956081</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7251202417434773</v>
+        <v>0.7212015521381987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7821426003171636</v>
+        <v>0.7805843081557425</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>878</v>
@@ -5462,19 +5462,19 @@
         <v>668221</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>640210</v>
+        <v>636596</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>695492</v>
+        <v>696027</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.5982115953475987</v>
+        <v>0.5982115953475986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5731350080666013</v>
+        <v>0.5699003368844764</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6226257307432498</v>
+        <v>0.62310479099884</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1617</v>
@@ -5483,19 +5483,19 @@
         <v>1414649</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1370874</v>
+        <v>1375204</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1452477</v>
+        <v>1456074</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6713746241007038</v>
+        <v>0.6713746241007039</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6505995351128941</v>
+        <v>0.6526545761953154</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6893274938288397</v>
+        <v>0.6910343240462221</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>839327</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>791251</v>
+        <v>786216</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>897094</v>
+        <v>901237</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2375838888482591</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2239752298481921</v>
+        <v>0.2225498395139767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2539354557456325</v>
+        <v>0.2551084414640231</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2312</v>
@@ -5608,19 +5608,19 @@
         <v>1454508</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1404385</v>
+        <v>1400195</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1506251</v>
+        <v>1507723</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3896100984864916</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3761838882658177</v>
+        <v>0.3750614345574528</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4034701324145561</v>
+        <v>0.4038643515631061</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3196</v>
@@ -5629,19 +5629,19 @@
         <v>2293836</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2222807</v>
+        <v>2222154</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2369082</v>
+        <v>2374879</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.3156942961967588</v>
+        <v>0.3156942961967587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3059187822817134</v>
+        <v>0.3058289338494142</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.326050299827259</v>
+        <v>0.32684805892677</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2693435</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2635668</v>
+        <v>2631525</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2741511</v>
+        <v>2746546</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.762416111151741</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7460645442543676</v>
+        <v>0.744891558535977</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.776024770151808</v>
+        <v>0.7774501604860234</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3049</v>
@@ -5679,19 +5679,19 @@
         <v>2278733</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2226990</v>
+        <v>2225518</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2328856</v>
+        <v>2333046</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6103899015135084</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5965298675854438</v>
+        <v>0.5961356484368938</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6238161117341823</v>
+        <v>0.6249385654425473</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5541</v>
@@ -5700,19 +5700,19 @@
         <v>4972167</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4896921</v>
+        <v>4891124</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5043196</v>
+        <v>5043849</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.6843057038032413</v>
+        <v>0.6843057038032412</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.673949700172741</v>
+        <v>0.6731519410732298</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6940812177182866</v>
+        <v>0.6941710661505857</v>
       </c>
     </row>
     <row r="18">
